--- a/biology/Médecine/James_Cancer_Hospital/James_Cancer_Hospital.xlsx
+++ b/biology/Médecine/James_Cancer_Hospital/James_Cancer_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Arthur G. James Cancer Hospital and Richard J. Solove Research Institute (communément appelé James Cancer Hospital) fait partie de l'université d'État de l'Ohio et de l'un des 45 hôpitaux nationaux spécialisés dans le traitement du cancer[1]. Il porte le nom d'Arthur G. James (en), son fondateur, qui souhaitait un hôpital pour cancéreux à Columbus, en Ohio[2]. Avec le récent agrandissement en 2014, il est maintenant le troisième plus grand hôpital pour cancéreux aux États-Unis[3].
-L'hôpital mène des traitements contre le cancer et des recherches dans le cadre de l'Institut de recherche Solove. Le James reçoit des dons par le biais de l'événement cycliste Pelotonia. Il a récemment reçu la plus haute reconnaissance en matière de soins infirmiers avec la prestigieuse désignation d'hôpital magnet[4],[5].
+Le Arthur G. James Cancer Hospital and Richard J. Solove Research Institute (communément appelé James Cancer Hospital) fait partie de l'université d'État de l'Ohio et de l'un des 45 hôpitaux nationaux spécialisés dans le traitement du cancer. Il porte le nom d'Arthur G. James (en), son fondateur, qui souhaitait un hôpital pour cancéreux à Columbus, en Ohio. Avec le récent agrandissement en 2014, il est maintenant le troisième plus grand hôpital pour cancéreux aux États-Unis.
+L'hôpital mène des traitements contre le cancer et des recherches dans le cadre de l'Institut de recherche Solove. Le James reçoit des dons par le biais de l'événement cycliste Pelotonia. Il a récemment reçu la plus haute reconnaissance en matière de soins infirmiers avec la prestigieuse désignation d'hôpital magnet,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première pierre de l'hôpital a été posée le 10 juillet 1984. Il  a été achevée le 16 janvier 1990, mais un bris de conduite d'eau a retardé l'ouverture jusqu'au 9 juillet 1990, date à laquelle le premier patient a été admis[6]. L'hôpital soutient le réseau de ressources en tissus humains (en) en hébergeant une organisation constitutive appelée Tissue Procurement Shared Resources[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première pierre de l'hôpital a été posée le 10 juillet 1984. Il  a été achevée le 16 janvier 1990, mais un bris de conduite d'eau a retardé l'ouverture jusqu'au 9 juillet 1990, date à laquelle le premier patient a été admis. L'hôpital soutient le réseau de ressources en tissus humains (en) en hébergeant une organisation constitutive appelée Tissue Procurement Shared Resources.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Nouvel hôpital et agrandissement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2014, le James a ouvert un nouvel hôpital, d'une surface de plus de 10 hectares et 21 étages, le « New James » est désormais le troisième plus grand hôpital pour cancéreux du pays[8]. Conçu par le cabinet d'architecture HOK, le projet de construction a débuté en 2010 et a été le plus grand projet de développement de l'histoire de l'université d'État de l'Ohio[9]. Le coût de la construction s'est élevé à 1,1 milliard de dollars[10]. Chaque étage des patients hospitalisés est spécialisé dans des sous-types de cancer spécifiques, dispose d'espaces destinés à l'enseignement ainsi que d'un laboratoire de recherche translationnelle[11].
-Le James dispose également de son propre service d'urgence de quinze lits qui est strictement réservé aux patients atteints de cancer[12] Il est entièrement intégré au service des urgences du centre médical Wexner de l'OSU[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2014, le James a ouvert un nouvel hôpital, d'une surface de plus de 10 hectares et 21 étages, le « New James » est désormais le troisième plus grand hôpital pour cancéreux du pays. Conçu par le cabinet d'architecture HOK, le projet de construction a débuté en 2010 et a été le plus grand projet de développement de l'histoire de l'université d'État de l'Ohio. Le coût de la construction s'est élevé à 1,1 milliard de dollars. Chaque étage des patients hospitalisés est spécialisé dans des sous-types de cancer spécifiques, dispose d'espaces destinés à l'enseignement ainsi que d'un laboratoire de recherche translationnelle.
+Le James dispose également de son propre service d'urgence de quinze lits qui est strictement réservé aux patients atteints de cancer Il est entièrement intégré au service des urgences du centre médical Wexner de l'OSU.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « The James Cancer Hospital » (voir la liste des auteurs).
 ↑ (en) « NCCN Members » (consulté le 7 juin 2020)
